--- a/HybridFrameWork/src/main/java/TestData/GunveerFile.xlsx
+++ b/HybridFrameWork/src/main/java/TestData/GunveerFile.xlsx
@@ -137,8 +137,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
